--- a/設計書/Oishi/プロジェクト型演習_成果物(ログイン).xlsx
+++ b/設計書/Oishi/プロジェクト型演習_成果物(ログイン).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C89FE8-9D6A-4047-BE51-F875D141CDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEBE415-E09B-43C4-8B34-922079CFB786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1447,9 +1447,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1486,119 +1483,167 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1606,96 +1651,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1703,6 +1688,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5057,85 +5057,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -5155,48 +5155,48 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="30" t="s">
+      <c r="H13" s="31"/>
+      <c r="I13" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="30"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="38">
+      <c r="G14" s="29"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="37">
         <v>45632</v>
       </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="30"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -5205,13 +5205,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -6230,19 +6230,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="71" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="71" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="59"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
@@ -6254,193 +6254,193 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="72" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="72" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="76">
+      <c r="G2" s="41"/>
+      <c r="H2" s="46">
         <v>45632</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="68"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="69"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="51"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="70"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="42" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="74"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="45" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="46"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="56"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="45" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="46"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="56"/>
     </row>
     <row r="8" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="45" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="46"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="56"/>
     </row>
     <row r="9" spans="1:12" ht="64.5" customHeight="1">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="47" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="46"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:12" ht="64.5" customHeight="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="45" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="46"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:12" ht="64.5" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64" t="s">
+      <c r="A11" s="70"/>
+      <c r="B11" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="45" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="46"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="56"/>
       <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="46"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="39" t="s">
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="72"/>
     </row>
     <row r="14" spans="1:12" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:12" ht="12.75" customHeight="1"/>
@@ -7431,17 +7431,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -7450,14 +7447,17 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -7484,358 +7484,358 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="26" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104" t="s">
+      <c r="F1" s="108"/>
+      <c r="G1" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="105"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="106" t="s">
+      <c r="F2" s="93"/>
+      <c r="G2" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="91"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="82" t="s">
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79" t="s">
+      <c r="F3" s="93"/>
+      <c r="G3" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="103"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79" t="s">
+      <c r="F4" s="93"/>
+      <c r="G4" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="103"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
       <c r="D5" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79" t="s">
+      <c r="F5" s="93"/>
+      <c r="G5" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="103"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79" t="s">
+      <c r="F6" s="93"/>
+      <c r="G6" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="103"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="99"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="27" t="s">
+      <c r="A7" s="94"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81" t="s">
+      <c r="F7" s="95"/>
+      <c r="G7" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="83"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="90" t="s">
+      <c r="B8" s="97"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="90" t="s">
+      <c r="E8" s="99"/>
+      <c r="F8" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="91"/>
+      <c r="G8" s="99"/>
       <c r="H8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="72" t="s">
+      <c r="A9" s="63"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="72" t="s">
+      <c r="E9" s="41"/>
+      <c r="F9" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="73"/>
-      <c r="H9" s="76">
+      <c r="G9" s="41"/>
+      <c r="H9" s="46">
         <v>45632</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="68"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="69"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="51"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="69"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="94" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="46"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="56"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
-      <c r="A14" s="95"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="97"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="88"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="98"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="89"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="98"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="89"/>
     </row>
     <row r="17" spans="1:12" ht="21" customHeight="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="98"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="89"/>
     </row>
     <row r="18" spans="1:12" ht="21" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="98"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="89"/>
     </row>
     <row r="19" spans="1:12" ht="21" customHeight="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="98"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="89"/>
     </row>
     <row r="20" spans="1:12" ht="21" customHeight="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="98"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="89"/>
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="98"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="89"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="46"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="56"/>
       <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="45" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
       <c r="I23" s="15" t="s">
         <v>25</v>
       </c>
@@ -7844,11 +7844,11 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="15" t="s">
         <v>27</v>
       </c>
@@ -7861,18 +7861,18 @@
       <c r="G24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="103" t="s">
+      <c r="H24" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="46"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
         <v>44</v>
@@ -7881,18 +7881,18 @@
         <v>46</v>
       </c>
       <c r="G25" s="18"/>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="46"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="56"/>
     </row>
     <row r="26" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
         <v>45</v>
@@ -7901,18 +7901,18 @@
         <v>45</v>
       </c>
       <c r="G26" s="18"/>
-      <c r="H26" s="45" t="s">
+      <c r="H26" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="46"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="56"/>
     </row>
     <row r="27" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
         <v>75</v>
@@ -7921,16 +7921,16 @@
       <c r="G27" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="45"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="46"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="56"/>
     </row>
     <row r="28" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
         <v>78</v>
@@ -7939,140 +7939,140 @@
       <c r="G28" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="102"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="80"/>
     </row>
     <row r="29" spans="1:12" ht="28.5" customHeight="1">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="94" t="s">
+      <c r="B29" s="67"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="44"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="74"/>
     </row>
     <row r="30" spans="1:12" ht="21" customHeight="1">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="46"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:12" ht="21" customHeight="1">
-      <c r="A31" s="95"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="97"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="88"/>
     </row>
     <row r="32" spans="1:12" ht="21" customHeight="1">
-      <c r="A32" s="53"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="98"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="89"/>
     </row>
     <row r="33" spans="1:12" ht="21" customHeight="1">
-      <c r="A33" s="53"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="98"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="89"/>
     </row>
     <row r="34" spans="1:12" ht="21" customHeight="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="98"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="89"/>
     </row>
     <row r="35" spans="1:12" ht="21" customHeight="1">
-      <c r="A35" s="53"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="98"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="89"/>
     </row>
     <row r="36" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A36" s="53"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="98"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="89"/>
     </row>
     <row r="37" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A37" s="92" t="s">
+      <c r="A37" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="46"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="56"/>
       <c r="L37" s="23"/>
     </row>
     <row r="38" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="45" t="s">
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="32"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31"/>
       <c r="I38" s="15" t="s">
         <v>25</v>
       </c>
@@ -8081,11 +8081,11 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A39" s="92" t="s">
+      <c r="A39" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="15" t="s">
         <v>27</v>
       </c>
@@ -8098,18 +8098,18 @@
       <c r="G39" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="103" t="s">
+      <c r="H39" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="46"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="56"/>
     </row>
     <row r="40" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A40" s="93" t="s">
+      <c r="A40" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17" t="s">
         <v>75</v>
@@ -8118,21 +8118,21 @@
       <c r="G40" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H40" s="45"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="46"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="56"/>
     </row>
     <row r="41" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A41" s="84"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="86"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="78"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="102"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="80"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" customHeight="1"/>
     <row r="43" spans="1:12" ht="12.75" customHeight="1"/>
@@ -9113,34 +9113,13 @@
     <row r="1018" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="D9:E11"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="F9:G11"/>
     <mergeCell ref="H9:H11"/>
@@ -9157,19 +9136,40 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A14:J21"/>
     <mergeCell ref="A22:J22"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="D9:E11"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="A6:C7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="A2:C4"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="H40:J40"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9194,20 +9194,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="71" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="71" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="59"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
@@ -9219,51 +9219,51 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="72" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="72" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="111"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="76">
+      <c r="G2" s="106"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="46">
         <v>45632</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="68"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="69"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="51"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="70"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>

--- a/設計書/Oishi/プロジェクト型演習_成果物(ログイン).xlsx
+++ b/設計書/Oishi/プロジェクト型演習_成果物(ログイン).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEBE415-E09B-43C4-8B34-922079CFB786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942C71E0-8593-488F-8E82-C1448B048748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1456,6 +1456,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1639,11 +1642,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1657,6 +1669,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1669,13 +1690,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1688,21 +1703,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1866,13 +1866,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1027042</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1887,8 +1887,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2647950" y="1171575"/>
-          <a:ext cx="7208767" cy="3629025"/>
+          <a:off x="2647950" y="1333499"/>
+          <a:ext cx="7208767" cy="10972800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2177,7 +2177,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent5">
+          <a:schemeClr val="accent1">
             <a:lumMod val="40000"/>
             <a:lumOff val="60000"/>
           </a:schemeClr>
@@ -2261,7 +2261,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent5">
+          <a:schemeClr val="accent1">
             <a:lumMod val="40000"/>
             <a:lumOff val="60000"/>
           </a:schemeClr>
@@ -2345,7 +2345,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent5">
+          <a:schemeClr val="accent1">
             <a:lumMod val="40000"/>
             <a:lumOff val="60000"/>
           </a:schemeClr>
@@ -2693,13 +2693,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>71750</xdr:rowOff>
+      <xdr:rowOff>71749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2714,8 +2714,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2724150" y="1795775"/>
-          <a:ext cx="2867025" cy="2385700"/>
+          <a:off x="2724150" y="1957699"/>
+          <a:ext cx="3267075" cy="10396226"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3005,15 +3005,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>160267</xdr:rowOff>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>74542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>31473</xdr:rowOff>
+      <xdr:rowOff>107673</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3028,7 +3028,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2819400" y="2046217"/>
+          <a:off x="3028950" y="2284342"/>
           <a:ext cx="2619375" cy="1976231"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3638,15 +3638,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>685067</xdr:colOff>
+      <xdr:colOff>894617</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3661,7 +3661,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2828192" y="2276475"/>
+          <a:off x="3037742" y="2514600"/>
           <a:ext cx="2610583" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3693,15 +3693,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>681805</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>891355</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3716,7 +3716,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2824930" y="2790825"/>
+          <a:off x="3034480" y="3028950"/>
           <a:ext cx="2613845" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3748,15 +3748,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>83793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>895348</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3771,8 +3771,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5724524" y="1807818"/>
-          <a:ext cx="4000499" cy="2383182"/>
+          <a:off x="6134100" y="1969743"/>
+          <a:ext cx="3629025" cy="3716682"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3826,13 +3826,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>240974</xdr:colOff>
+      <xdr:colOff>650549</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>81329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>94014</xdr:colOff>
+      <xdr:colOff>503589</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>89124</xdr:rowOff>
     </xdr:to>
@@ -3849,7 +3849,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5727374" y="1643429"/>
+          <a:off x="6136949" y="1805354"/>
           <a:ext cx="967465" cy="169720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3889,13 +3889,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>733425</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>10387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
+      <xdr:colOff>857250</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>57979</xdr:rowOff>
     </xdr:to>
@@ -3912,8 +3912,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5891420" y="2097604"/>
-          <a:ext cx="3744981" cy="1041505"/>
+          <a:off x="6219825" y="2220187"/>
+          <a:ext cx="3467100" cy="1019142"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4056,7 +4056,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> : String = "admin"</a:t>
+            <a:t> : String = "root"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4087,7 +4087,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- PASSWORD : String = "pass"</a:t>
+            <a:t>- PASSWORD : String = "root"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4198,13 +4198,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>749466</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>78718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>778565</xdr:colOff>
+      <xdr:colOff>844449</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>78718</xdr:rowOff>
     </xdr:to>
@@ -4221,8 +4221,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5910470" y="2331588"/>
-          <a:ext cx="3713921" cy="0"/>
+          <a:off x="6235866" y="2450443"/>
+          <a:ext cx="3438258" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4253,13 +4253,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>732853</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>116818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>784664</xdr:colOff>
+      <xdr:colOff>851189</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>116818</xdr:rowOff>
     </xdr:to>
@@ -4276,8 +4276,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5886450" y="2812393"/>
-          <a:ext cx="3727889" cy="0"/>
+          <a:off x="6219253" y="2974318"/>
+          <a:ext cx="3461611" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4308,15 +4308,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>407085</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>13390</xdr:rowOff>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>118165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>797610</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>41763</xdr:rowOff>
+      <xdr:colOff>854760</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4331,8 +4331,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5893485" y="3518590"/>
-          <a:ext cx="3733800" cy="514148"/>
+          <a:off x="6219825" y="3623365"/>
+          <a:ext cx="3464610" cy="514148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4506,15 +4506,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>426135</xdr:colOff>
+      <xdr:colOff>750236</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>77995</xdr:rowOff>
+      <xdr:rowOff>20845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>785600</xdr:colOff>
+      <xdr:colOff>842750</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>77995</xdr:rowOff>
+      <xdr:rowOff>20845</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4529,8 +4529,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5912535" y="3745120"/>
-          <a:ext cx="3702740" cy="0"/>
+          <a:off x="6236636" y="3849895"/>
+          <a:ext cx="3435789" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4561,15 +4561,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>50006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>3572</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4584,8 +4584,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7715250" y="3069431"/>
-          <a:ext cx="0" cy="439341"/>
+          <a:off x="7934325" y="3231356"/>
+          <a:ext cx="0" cy="388144"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4617,32 +4617,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1071562</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>398860</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100AB374-60EF-3703-4F62-909895C060F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EF7880-3440-A348-42B4-CA365EBCD997}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5447109" y="3583781"/>
-          <a:ext cx="440532" cy="0"/>
+        <a:xfrm>
+          <a:off x="2457450" y="3638550"/>
+          <a:ext cx="590550" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4674,43 +4674,1155 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>282013</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>18585</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>349702</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>136750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="フローチャート: 処理 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DEA2E07-DE0C-4E3A-888F-A2146382A035}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="4829174"/>
+          <a:ext cx="2950027" cy="7394801"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>TaskCategoryUserStatusBean</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>  taskId: int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>-  taskName: String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>-  categoryId:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>- categoryName : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>- limitDate : date</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>- userId : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>- userName : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>- statusCode : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>- statusName : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>- memo : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>- createDatetime : Timestamp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>- updateDatetime : Timestamp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+ TaskCategoryUserStatusBean()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+ getTaskId() : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+ setTaskId(taskid : int): void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+getTaskName(): String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+setTaskName(taskname : String): void </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+getCategoryId() : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+setCategoryId(categoryid : int) void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+getCategoryName() : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+setCategoryName(categoryName : String)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> void</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+getLimitDate():Date</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+setLimitDate(limitdate:date):void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+getUserId():String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>setUserId(useid:String) : void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+getUserName():String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+setUserName(userName:String) : void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+getStatusCode():String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+setStatusCode(statuscode:String) void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+getStatusName():String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+setStatusName(statusName:String) :void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+getMemo():String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+setMemo(memo : String):void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+getCreateDateTime():Timestamp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+setCreateDateTime</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>(createDatetime:Timestamp) : void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+getUpdateDateTime() : Timestamp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+setUpdateDateTime</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>(updateDateTime : TimeStamp) : void</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" kern="1200" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>971551</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152197</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBCE98F2-58F3-44D3-BF84-02C311E8E173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457951" y="4924424"/>
+          <a:ext cx="3028950" cy="514148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TaskCategoryUserStatusDAO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>delete(taskId:int):int</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>997314</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>26504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657792</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>26504</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="コネクタ: カギ線 65">
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E16FC4DF-4485-514B-2AAE-3A6365D51BD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C6F4BA-C951-4DDE-A198-4272AD712CC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4360349" y="1283774"/>
-          <a:ext cx="314790" cy="6414062"/>
+        <a:xfrm>
+          <a:off x="6483714" y="5150954"/>
+          <a:ext cx="3003753" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
+        <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:prstDash val="sysDot"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4732,32 +5844,91 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>78581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>78581</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="直線矢印コネクタ 67">
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6EEEF6A-BD77-60E1-ADEB-342D9D0A1D00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100AB374-60EF-3703-4F62-909895C060F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7715250" y="4029075"/>
-          <a:ext cx="0" cy="628650"/>
+        <a:xfrm flipH="1">
+          <a:off x="5662612" y="3745706"/>
+          <a:ext cx="547688" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>971551</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>64743</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC625D4F-0EC6-4B3D-8AEF-41BBC1BAE63A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5819775" y="5181498"/>
+          <a:ext cx="638176" cy="7695"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4792,31 +5963,33 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>146538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236880</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
+        <xdr:cNvPr id="60" name="コネクタ: カギ線 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EF7880-3440-A348-42B4-CA365EBCD997}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46804EEC-32B8-E061-EFDC-27933BF51FD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="49" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2457450" y="3857625"/>
-          <a:ext cx="400050" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="2457450" y="4137513"/>
+          <a:ext cx="5494680" cy="272562"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="28575">
@@ -4825,6 +5998,176 @@
           </a:solidFill>
           <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>282013</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>18584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123823</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="コネクタ: カギ線 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6855F3-AB7A-D0C6-25E2-E2A34DEA474B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4427025" y="1379022"/>
+          <a:ext cx="429089" cy="6661713"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線コネクタ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3A2CA2-2E6A-44F8-B0DD-0DCCC1E0DE92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="5133975"/>
+          <a:ext cx="2914650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76470EA2-E5C2-41E2-AB8D-88DDC12C5312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="7362825"/>
+          <a:ext cx="2914650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -5057,85 +6400,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -5155,48 +6498,48 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="29" t="s">
+      <c r="H13" s="32"/>
+      <c r="I13" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="29"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="37">
-        <v>45632</v>
+      <c r="G14" s="30"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="38">
+        <v>45639</v>
       </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="29"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -5205,13 +6548,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -6230,19 +7573,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="38" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="39"/>
+      <c r="G1" s="40"/>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
@@ -6254,193 +7597,193 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="40" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="40" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="46">
-        <v>45632</v>
+      <c r="G2" s="42"/>
+      <c r="H2" s="47">
+        <v>45639</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="50"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="51"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="52"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="73" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="74"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="75"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="55" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="56"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="55" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="56"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="57"/>
     </row>
     <row r="8" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="55" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="56"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="57"/>
     </row>
     <row r="9" spans="1:12" ht="64.5" customHeight="1">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="75" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="56"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="57"/>
     </row>
     <row r="10" spans="1:12" ht="64.5" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="70"/>
+      <c r="B10" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="55" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="56"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:12" ht="64.5" customHeight="1">
-      <c r="A11" s="70"/>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="71"/>
+      <c r="B11" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="55" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="56"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="57"/>
       <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="56"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="71" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="72"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:12" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:12" ht="12.75" customHeight="1"/>
@@ -7484,149 +8827,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="109" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="110"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="90" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="91"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="111" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="101" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="103"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="108"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="103"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="108"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
       <c r="D5" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="101" t="s">
+      <c r="F5" s="97"/>
+      <c r="G5" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="103"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="101" t="s">
+      <c r="F6" s="97"/>
+      <c r="G6" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="103"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="108"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="94"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
       <c r="D7" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="100" t="s">
+      <c r="F7" s="99"/>
+      <c r="G7" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
       <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="98" t="s">
+      <c r="B8" s="104"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="99"/>
-      <c r="F8" s="98" t="s">
+      <c r="E8" s="106"/>
+      <c r="F8" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="99"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="25" t="s">
         <v>6</v>
       </c>
@@ -7638,204 +8981,204 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="40" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="40" t="s">
+      <c r="E9" s="42"/>
+      <c r="F9" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="46">
-        <v>45632</v>
+      <c r="G9" s="42"/>
+      <c r="H9" s="47">
+        <v>45639</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="51"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="51"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="52"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="51"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="85" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="74"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="75"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="56"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="57"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
-      <c r="A14" s="86"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="88"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="89"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="89"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="90"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="89"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="90"/>
     </row>
     <row r="17" spans="1:12" ht="21" customHeight="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="89"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="90"/>
     </row>
     <row r="18" spans="1:12" ht="21" customHeight="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="89"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="90"/>
     </row>
     <row r="19" spans="1:12" ht="21" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="89"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="90"/>
     </row>
     <row r="20" spans="1:12" ht="21" customHeight="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="89"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="90"/>
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="89"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="90"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="56"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="57"/>
       <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="55" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="15" t="s">
         <v>25</v>
       </c>
@@ -7844,11 +9187,11 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="15" t="s">
         <v>27</v>
       </c>
@@ -7861,18 +9204,18 @@
       <c r="G24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="82" t="s">
+      <c r="H24" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="56"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
         <v>44</v>
@@ -7881,18 +9224,18 @@
         <v>46</v>
       </c>
       <c r="G25" s="18"/>
-      <c r="H25" s="55" t="s">
+      <c r="H25" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="56"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="57"/>
     </row>
     <row r="26" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
         <v>45</v>
@@ -7901,18 +9244,18 @@
         <v>45</v>
       </c>
       <c r="G26" s="18"/>
-      <c r="H26" s="55" t="s">
+      <c r="H26" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="56"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="57"/>
     </row>
     <row r="27" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
         <v>75</v>
@@ -7921,16 +9264,16 @@
       <c r="G27" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="55"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="57"/>
     </row>
     <row r="28" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="78"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
         <v>78</v>
@@ -7939,140 +9282,140 @@
       <c r="G28" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="71"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="80"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="81"/>
     </row>
     <row r="29" spans="1:12" ht="28.5" customHeight="1">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="85" t="s">
+      <c r="B29" s="68"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="74"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="75"/>
     </row>
     <row r="30" spans="1:12" ht="21" customHeight="1">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="56"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31" spans="1:12" ht="21" customHeight="1">
-      <c r="A31" s="86"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="88"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="89"/>
     </row>
     <row r="32" spans="1:12" ht="21" customHeight="1">
-      <c r="A32" s="63"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="89"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="90"/>
     </row>
     <row r="33" spans="1:12" ht="21" customHeight="1">
-      <c r="A33" s="63"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="89"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="90"/>
     </row>
     <row r="34" spans="1:12" ht="21" customHeight="1">
-      <c r="A34" s="63"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="89"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="90"/>
     </row>
     <row r="35" spans="1:12" ht="21" customHeight="1">
-      <c r="A35" s="63"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="89"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="90"/>
     </row>
     <row r="36" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A36" s="63"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="89"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="90"/>
     </row>
     <row r="37" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="56"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="57"/>
       <c r="L37" s="23"/>
     </row>
     <row r="38" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="55" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="32"/>
       <c r="I38" s="15" t="s">
         <v>25</v>
       </c>
@@ -8081,11 +9424,11 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="15" t="s">
         <v>27</v>
       </c>
@@ -8098,18 +9441,18 @@
       <c r="G39" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="82" t="s">
+      <c r="H39" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="56"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="57"/>
     </row>
     <row r="40" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A40" s="83" t="s">
+      <c r="A40" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17" t="s">
         <v>75</v>
@@ -8118,21 +9461,21 @@
       <c r="G40" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H40" s="55"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="57"/>
     </row>
     <row r="41" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A41" s="76"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="78"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="80"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="81"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" customHeight="1"/>
     <row r="43" spans="1:12" ht="12.75" customHeight="1"/>
@@ -9180,7 +10523,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M998"/>
+  <dimension ref="A1:M1043"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C4"/>
@@ -9194,20 +10537,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="38" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="105"/>
-      <c r="H1" s="39"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
@@ -9219,51 +10562,51 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="40" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="40" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="106"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="46">
-        <v>45632</v>
+      <c r="G2" s="111"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="47">
+        <v>45639</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="51"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="52"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -9605,85 +10948,625 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="13"/>
-    </row>
-    <row r="32" spans="1:13" ht="12.75" customHeight="1"/>
-    <row r="33" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="34" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="35" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="36" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="37" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="38" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="39" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="40" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="41" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="42" spans="11:11" ht="12.75" customHeight="1">
-      <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="44" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="45" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="46" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="47" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="48" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="10"/>
+    </row>
+    <row r="36" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="10"/>
+    </row>
+    <row r="38" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="10"/>
+    </row>
+    <row r="54" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="10"/>
+    </row>
+    <row r="56" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="10"/>
+    </row>
+    <row r="57" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="10"/>
+    </row>
+    <row r="58" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="10"/>
+    </row>
+    <row r="59" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="10"/>
+    </row>
+    <row r="60" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="10"/>
+    </row>
+    <row r="61" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="10"/>
+    </row>
+    <row r="62" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="10"/>
+    </row>
+    <row r="63" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="10"/>
+    </row>
+    <row r="64" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="10"/>
+    </row>
+    <row r="65" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="10"/>
+    </row>
+    <row r="66" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="10"/>
+    </row>
+    <row r="67" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="10"/>
+    </row>
+    <row r="68" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="10"/>
+    </row>
+    <row r="69" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="10"/>
+    </row>
+    <row r="70" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="10"/>
+    </row>
+    <row r="71" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="10"/>
+    </row>
+    <row r="72" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="10"/>
+    </row>
+    <row r="73" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="10"/>
+    </row>
+    <row r="74" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A74" s="8"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="10"/>
+    </row>
+    <row r="75" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A75" s="8"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="10"/>
+    </row>
+    <row r="76" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A76" s="11"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="13"/>
+    </row>
+    <row r="77" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="78" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="79" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="80" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="81" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="82" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="83" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="84" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="85" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="86" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="87" spans="11:11" ht="12.75" customHeight="1">
+      <c r="K87" s="14"/>
+    </row>
+    <row r="88" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="89" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="90" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="91" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="92" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="93" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="94" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="95" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="96" spans="11:11" ht="12.75" customHeight="1"/>
     <row r="97" ht="12.75" customHeight="1"/>
     <row r="98" ht="12.75" customHeight="1"/>
     <row r="99" ht="12.75" customHeight="1"/>
@@ -10586,6 +12469,51 @@
     <row r="996" ht="12.75" customHeight="1"/>
     <row r="997" ht="12.75" customHeight="1"/>
     <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+    <row r="1001" ht="12.75" customHeight="1"/>
+    <row r="1002" ht="12.75" customHeight="1"/>
+    <row r="1003" ht="12.75" customHeight="1"/>
+    <row r="1004" ht="12.75" customHeight="1"/>
+    <row r="1005" ht="12.75" customHeight="1"/>
+    <row r="1006" ht="12.75" customHeight="1"/>
+    <row r="1007" ht="12.75" customHeight="1"/>
+    <row r="1008" ht="12.75" customHeight="1"/>
+    <row r="1009" ht="12.75" customHeight="1"/>
+    <row r="1010" ht="12.75" customHeight="1"/>
+    <row r="1011" ht="12.75" customHeight="1"/>
+    <row r="1012" ht="12.75" customHeight="1"/>
+    <row r="1013" ht="12.75" customHeight="1"/>
+    <row r="1014" ht="12.75" customHeight="1"/>
+    <row r="1015" ht="12.75" customHeight="1"/>
+    <row r="1016" ht="12.75" customHeight="1"/>
+    <row r="1017" ht="12.75" customHeight="1"/>
+    <row r="1018" ht="12.75" customHeight="1"/>
+    <row r="1019" ht="12.75" customHeight="1"/>
+    <row r="1020" ht="12.75" customHeight="1"/>
+    <row r="1021" ht="12.75" customHeight="1"/>
+    <row r="1022" ht="12.75" customHeight="1"/>
+    <row r="1023" ht="12.75" customHeight="1"/>
+    <row r="1024" ht="12.75" customHeight="1"/>
+    <row r="1025" ht="12.75" customHeight="1"/>
+    <row r="1026" ht="12.75" customHeight="1"/>
+    <row r="1027" ht="12.75" customHeight="1"/>
+    <row r="1028" ht="12.75" customHeight="1"/>
+    <row r="1029" ht="12.75" customHeight="1"/>
+    <row r="1030" ht="12.75" customHeight="1"/>
+    <row r="1031" ht="12.75" customHeight="1"/>
+    <row r="1032" ht="12.75" customHeight="1"/>
+    <row r="1033" ht="12.75" customHeight="1"/>
+    <row r="1034" ht="12.75" customHeight="1"/>
+    <row r="1035" ht="12.75" customHeight="1"/>
+    <row r="1036" ht="12.75" customHeight="1"/>
+    <row r="1037" ht="12.75" customHeight="1"/>
+    <row r="1038" ht="12.75" customHeight="1"/>
+    <row r="1039" ht="12.75" customHeight="1"/>
+    <row r="1040" ht="12.75" customHeight="1"/>
+    <row r="1041" ht="12.75" customHeight="1"/>
+    <row r="1042" ht="12.75" customHeight="1"/>
+    <row r="1043" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="I2:I4"/>

--- a/設計書/Oishi/プロジェクト型演習_成果物(ログイン).xlsx
+++ b/設計書/Oishi/プロジェクト型演習_成果物(ログイン).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942C71E0-8593-488F-8E82-C1448B048748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A74986-3C5E-4413-A6C7-FB9B913FC435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,13 +17,15 @@
     <sheet name="ユースケース記述" sheetId="2" r:id="rId2"/>
     <sheet name="画面設計書" sheetId="5" r:id="rId3"/>
     <sheet name="詳細クラス図" sheetId="4" r:id="rId4"/>
+    <sheet name="テスト仕様書兼結果報告書" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="122">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -511,6 +513,159 @@
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>テスト仕様書兼
+結果報告書</t>
+  </si>
+  <si>
+    <t>テストレベル</t>
+  </si>
+  <si>
+    <t>テストベース</t>
+  </si>
+  <si>
+    <t>テスト対象</t>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+  </si>
+  <si>
+    <t>重要度</t>
+  </si>
+  <si>
+    <t>重要度は、次のいずれかを持つ</t>
+  </si>
+  <si>
+    <t>◎：仕様　⇒100%解決する必要がある</t>
+  </si>
+  <si>
+    <t>○：重要　⇒別途テストパス率の指針に従う</t>
+  </si>
+  <si>
+    <t>△：重要ではない　⇒別途テストパス率の指針に従う</t>
+  </si>
+  <si>
+    <t>×：無くても良い　⇒個別に検討する</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>系統</t>
+  </si>
+  <si>
+    <t>テストテーマ</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>操作手順</t>
+  </si>
+  <si>
+    <t>予測結果</t>
+  </si>
+  <si>
+    <t>テスト日</t>
+  </si>
+  <si>
+    <t>対応者</t>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>◎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正常系
+</t>
+  </si>
+  <si>
+    <t>URLアクセス</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>ログイン画面へ遷移する</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>異常系</t>
+  </si>
+  <si>
+    <t>ユーザIDがDBに登録されていないときのログインボタン動作</t>
+  </si>
+  <si>
+    <t>単体テスト</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>画面設計書</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>http://localhost:8080/ProjectX/login.jsp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　へアクセスする</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>・ユーザID：999999
+・パスワード：root</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ログインボタンを押下する</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve">エラー画面へ遷移する
+</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DBに登録されているユーザIDとパスワードでログインする</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>・ユーザID：admin
+・パスワード：pass</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>メニュー画面に遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
@@ -519,7 +674,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]h:mm"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -603,6 +758,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -618,7 +788,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -1364,11 +1534,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1459,6 +1725,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1705,9 +2040,136 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 5" xfId="1" xr:uid="{D6FD3795-9168-413C-9396-44AD9760927A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6400,85 +6862,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -6498,48 +6960,48 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="30" t="s">
+      <c r="H13" s="55"/>
+      <c r="I13" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="30"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="38">
+      <c r="G14" s="53"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="61">
         <v>45639</v>
       </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="55"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="30"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="55"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -6548,13 +7010,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -7573,19 +8035,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="63"/>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
@@ -7597,193 +8059,193 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="41" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="41" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="47">
+      <c r="G2" s="65"/>
+      <c r="H2" s="70">
         <v>45639</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="51"/>
+      <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="64"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="52"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="75"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="53"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="74" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="75"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="98"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="56" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="57"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="56" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="57"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="80"/>
     </row>
     <row r="8" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="56" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="57"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="80"/>
     </row>
     <row r="9" spans="1:12" ht="64.5" customHeight="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="76" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="57"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="80"/>
     </row>
     <row r="10" spans="1:12" ht="64.5" customHeight="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="93"/>
+      <c r="B10" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="56" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="57"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="80"/>
     </row>
     <row r="11" spans="1:12" ht="64.5" customHeight="1">
-      <c r="A11" s="71"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="94"/>
+      <c r="B11" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="56" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="57"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="80"/>
       <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="57"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="80"/>
     </row>
     <row r="13" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="72" t="s">
+      <c r="B13" s="82"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="73"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="96"/>
     </row>
     <row r="14" spans="1:12" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:12" ht="12.75" customHeight="1"/>
@@ -8827,149 +9289,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
       <c r="D1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91" t="s">
+      <c r="F1" s="114"/>
+      <c r="G1" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="115"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="93" t="s">
+      <c r="F2" s="120"/>
+      <c r="G2" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="117"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="100" t="s">
+      <c r="A3" s="119"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="107" t="s">
+      <c r="F3" s="120"/>
+      <c r="G3" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="131"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97" t="s">
+      <c r="A4" s="119"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="107" t="s">
+      <c r="F4" s="120"/>
+      <c r="G4" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="108"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="131"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="97"/>
-      <c r="G5" s="107" t="s">
+      <c r="F5" s="120"/>
+      <c r="G5" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="108"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="131"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
       <c r="D6" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="97" t="s">
+      <c r="E6" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="107" t="s">
+      <c r="F6" s="120"/>
+      <c r="G6" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="108"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="131"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="98"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
       <c r="D7" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="101" t="s">
+      <c r="F7" s="122"/>
+      <c r="G7" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="102"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="125"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="105" t="s">
+      <c r="B8" s="127"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="105" t="s">
+      <c r="E8" s="129"/>
+      <c r="F8" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="106"/>
+      <c r="G8" s="129"/>
       <c r="H8" s="25" t="s">
         <v>6</v>
       </c>
@@ -8981,204 +9443,204 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1">
-      <c r="A9" s="64"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="41" t="s">
+      <c r="A9" s="87"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="41" t="s">
+      <c r="E9" s="65"/>
+      <c r="F9" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="47">
+      <c r="G9" s="65"/>
+      <c r="H9" s="70">
         <v>45639</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="51"/>
+      <c r="J9" s="74"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="52"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="75"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="64"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="52"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="75"/>
     </row>
     <row r="12" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="86" t="s">
+      <c r="B12" s="91"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="75"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="98"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="57"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="80"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
-      <c r="A14" s="87"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="89"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="112"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
-      <c r="A15" s="64"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="90"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="113"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
-      <c r="A16" s="64"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="90"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="113"/>
     </row>
     <row r="17" spans="1:12" ht="21" customHeight="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="90"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="113"/>
     </row>
     <row r="18" spans="1:12" ht="21" customHeight="1">
-      <c r="A18" s="64"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="90"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="113"/>
     </row>
     <row r="19" spans="1:12" ht="21" customHeight="1">
-      <c r="A19" s="64"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="90"/>
+      <c r="A19" s="87"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="113"/>
     </row>
     <row r="20" spans="1:12" ht="21" customHeight="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="90"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="113"/>
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="90"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="57"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="80"/>
       <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="56" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="55"/>
       <c r="I23" s="15" t="s">
         <v>25</v>
       </c>
@@ -9187,11 +9649,11 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="15" t="s">
         <v>27</v>
       </c>
@@ -9204,18 +9666,18 @@
       <c r="G24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="83" t="s">
+      <c r="H24" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="57"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="80"/>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
         <v>44</v>
@@ -9224,18 +9686,18 @@
         <v>46</v>
       </c>
       <c r="G25" s="18"/>
-      <c r="H25" s="56" t="s">
+      <c r="H25" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="57"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="80"/>
     </row>
     <row r="26" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
         <v>45</v>
@@ -9244,18 +9706,18 @@
         <v>45</v>
       </c>
       <c r="G26" s="18"/>
-      <c r="H26" s="56" t="s">
+      <c r="H26" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="57"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="80"/>
     </row>
     <row r="27" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
         <v>75</v>
@@ -9264,16 +9726,16 @@
       <c r="G27" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="56"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="57"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="80"/>
     </row>
     <row r="28" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="79"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="102"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
         <v>78</v>
@@ -9282,140 +9744,140 @@
       <c r="G28" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="72"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="81"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="104"/>
     </row>
     <row r="29" spans="1:12" ht="28.5" customHeight="1">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="86" t="s">
+      <c r="B29" s="91"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="75"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="98"/>
     </row>
     <row r="30" spans="1:12" ht="21" customHeight="1">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="57"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="80"/>
     </row>
     <row r="31" spans="1:12" ht="21" customHeight="1">
-      <c r="A31" s="87"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="89"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="112"/>
     </row>
     <row r="32" spans="1:12" ht="21" customHeight="1">
-      <c r="A32" s="64"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="90"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="113"/>
     </row>
     <row r="33" spans="1:12" ht="21" customHeight="1">
-      <c r="A33" s="64"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="90"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="113"/>
     </row>
     <row r="34" spans="1:12" ht="21" customHeight="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="90"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="113"/>
     </row>
     <row r="35" spans="1:12" ht="21" customHeight="1">
-      <c r="A35" s="64"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="90"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="113"/>
     </row>
     <row r="36" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A36" s="64"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="90"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="113"/>
     </row>
     <row r="37" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="57"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="80"/>
       <c r="L37" s="23"/>
     </row>
     <row r="38" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="56" t="s">
+      <c r="B38" s="54"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="32"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="55"/>
       <c r="I38" s="15" t="s">
         <v>25</v>
       </c>
@@ -9424,11 +9886,11 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="15" t="s">
         <v>27</v>
       </c>
@@ -9441,18 +9903,18 @@
       <c r="G39" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="83" t="s">
+      <c r="H39" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="57"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="80"/>
     </row>
     <row r="40" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17" t="s">
         <v>75</v>
@@ -9461,21 +9923,21 @@
       <c r="G40" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H40" s="56"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="57"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="80"/>
     </row>
     <row r="41" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A41" s="77"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="79"/>
+      <c r="A41" s="100"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="81"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="104"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" customHeight="1"/>
     <row r="43" spans="1:12" ht="12.75" customHeight="1"/>
@@ -10537,20 +10999,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="40"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
@@ -10562,51 +11024,51 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="41" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="111"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="47">
+      <c r="E2" s="65"/>
+      <c r="F2" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="134"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="70">
         <v>45639</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="51"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="64"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="52"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="75"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="53"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -12530,4 +12992,2064 @@
   <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC45E0EE-7DC2-4B2C-B53A-6EC72CB89DE7}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="2.85546875" style="30" customWidth="1"/>
+    <col min="7" max="20" width="8.140625" style="30" customWidth="1"/>
+    <col min="21" max="26" width="8.7109375" style="30" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="18" customHeight="1">
+      <c r="A1" s="164" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="173" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="173" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="173" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="173" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="159"/>
+      <c r="S1" s="173" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="161"/>
+    </row>
+    <row r="2" spans="1:26" ht="18" customHeight="1">
+      <c r="A2" s="167"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="151" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="151" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="176">
+        <v>45643</v>
+      </c>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="151" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="175"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="152"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" customHeight="1">
+      <c r="A3" s="167"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="153"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="153"/>
+      <c r="T3" s="154"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="170"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="172"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="172"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="156"/>
+    </row>
+    <row r="5" spans="1:26" ht="18" customHeight="1">
+      <c r="A5" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="160" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="158"/>
+      <c r="N5" s="158"/>
+      <c r="O5" s="158"/>
+      <c r="P5" s="158"/>
+      <c r="Q5" s="158"/>
+      <c r="R5" s="158"/>
+      <c r="S5" s="158"/>
+      <c r="T5" s="161"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" customHeight="1">
+      <c r="A6" s="149" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="162" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="142"/>
+      <c r="Q6" s="142"/>
+      <c r="R6" s="142"/>
+      <c r="S6" s="142"/>
+      <c r="T6" s="163"/>
+    </row>
+    <row r="7" spans="1:26" ht="18" customHeight="1">
+      <c r="A7" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="142"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="142"/>
+      <c r="S7" s="142"/>
+      <c r="T7" s="163"/>
+    </row>
+    <row r="8" spans="1:26" ht="7.5" customHeight="1">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="33"/>
+    </row>
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+    </row>
+    <row r="10" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+    </row>
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+    </row>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+    </row>
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+    </row>
+    <row r="14" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="33"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A15" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="143"/>
+      <c r="C15" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="143"/>
+      <c r="E15" s="147" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="143"/>
+      <c r="G15" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="147" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="143"/>
+      <c r="L15" s="147" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" s="142"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="147" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="142"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="S15" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="T15" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="45" customHeight="1">
+      <c r="A16" s="144">
+        <v>1</v>
+      </c>
+      <c r="B16" s="143"/>
+      <c r="C16" s="145" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="143"/>
+      <c r="E16" s="145" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="143"/>
+      <c r="G16" s="146" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="142"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="146" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="143"/>
+      <c r="L16" s="148" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="141" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="142"/>
+      <c r="Q16" s="143"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+    </row>
+    <row r="17" spans="1:26" ht="45" customHeight="1">
+      <c r="A17" s="144">
+        <v>2</v>
+      </c>
+      <c r="B17" s="143"/>
+      <c r="C17" s="145" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="143"/>
+      <c r="E17" s="145" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="143"/>
+      <c r="G17" s="146" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="146" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="143"/>
+      <c r="L17" s="141" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" s="142"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="141" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="142"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+    </row>
+    <row r="18" spans="1:26" ht="45" customHeight="1">
+      <c r="A18" s="144">
+        <v>3</v>
+      </c>
+      <c r="B18" s="143"/>
+      <c r="C18" s="145" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="143"/>
+      <c r="E18" s="145" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="143"/>
+      <c r="G18" s="146" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="142"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="146" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" s="143"/>
+      <c r="L18" s="141" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" s="142"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="141" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="142"/>
+      <c r="Q18" s="143"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+    </row>
+    <row r="19" spans="1:26" ht="45" customHeight="1">
+      <c r="A19" s="144"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="142"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+    </row>
+    <row r="20" spans="1:26" ht="45" customHeight="1">
+      <c r="A20" s="144"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="141"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="143"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+    </row>
+    <row r="21" spans="1:26" ht="45" customHeight="1">
+      <c r="A21" s="144"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="143"/>
+      <c r="O21" s="141"/>
+      <c r="P21" s="142"/>
+      <c r="Q21" s="143"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+    </row>
+    <row r="22" spans="1:26" ht="45" customHeight="1">
+      <c r="A22" s="144"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="141"/>
+      <c r="P22" s="142"/>
+      <c r="Q22" s="143"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+    </row>
+    <row r="23" spans="1:26" ht="45" customHeight="1">
+      <c r="A23" s="144"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="142"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="142"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+    </row>
+    <row r="24" spans="1:26" ht="45" customHeight="1">
+      <c r="A24" s="144"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="143"/>
+      <c r="L24" s="141"/>
+      <c r="M24" s="142"/>
+      <c r="N24" s="143"/>
+      <c r="O24" s="141"/>
+      <c r="P24" s="142"/>
+      <c r="Q24" s="143"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+    </row>
+    <row r="25" spans="1:26" ht="45" customHeight="1">
+      <c r="A25" s="144"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="142"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="141"/>
+      <c r="P25" s="142"/>
+      <c r="Q25" s="143"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+    </row>
+    <row r="26" spans="1:26" ht="45" customHeight="1">
+      <c r="A26" s="144"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="142"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="141"/>
+      <c r="P26" s="142"/>
+      <c r="Q26" s="143"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+    </row>
+    <row r="27" spans="1:26" ht="45" customHeight="1">
+      <c r="A27" s="144"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="142"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="141"/>
+      <c r="P27" s="142"/>
+      <c r="Q27" s="143"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+    </row>
+    <row r="28" spans="1:26" ht="45" customHeight="1">
+      <c r="A28" s="144"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="142"/>
+      <c r="N28" s="143"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="142"/>
+      <c r="Q28" s="143"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+    </row>
+    <row r="29" spans="1:26" ht="45" customHeight="1">
+      <c r="A29" s="144"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="143"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="142"/>
+      <c r="N29" s="143"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="142"/>
+      <c r="Q29" s="143"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+    </row>
+    <row r="30" spans="1:26" ht="45" customHeight="1">
+      <c r="A30" s="144"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="143"/>
+      <c r="O30" s="141"/>
+      <c r="P30" s="142"/>
+      <c r="Q30" s="143"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+    </row>
+    <row r="31" spans="1:26" ht="45" customHeight="1" thickBot="1">
+      <c r="A31" s="138"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="137"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="137"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="136"/>
+      <c r="Q31" s="137"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+    </row>
+    <row r="32" spans="1:26" ht="12.75" customHeight="1">
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+    </row>
+    <row r="33" spans="4:10" ht="12.75" customHeight="1">
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+    </row>
+    <row r="34" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="35" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="36" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="37" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="38" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="39" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="40" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="41" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="42" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="43" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="44" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="45" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="46" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="47" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="48" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="136">
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:N29"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
 </file>